--- a/13/1/2/1/Ingresos Tributarios 2004 a 2021 - Mensual.xlsx
+++ b/13/1/2/1/Ingresos Tributarios 2004 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
   <si>
     <t>Serie</t>
   </si>
@@ -692,6 +692,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1052,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P211"/>
+  <dimension ref="A1:P212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11605,6 +11608,56 @@
         <v>24779</v>
       </c>
     </row>
+    <row r="212" spans="1:16">
+      <c r="A212" t="s">
+        <v>226</v>
+      </c>
+      <c r="B212">
+        <v>1040494</v>
+      </c>
+      <c r="C212">
+        <v>-518053</v>
+      </c>
+      <c r="D212">
+        <v>592125</v>
+      </c>
+      <c r="E212">
+        <v>966421</v>
+      </c>
+      <c r="F212">
+        <v>1906053</v>
+      </c>
+      <c r="G212">
+        <v>2660978</v>
+      </c>
+      <c r="H212">
+        <v>-30791</v>
+      </c>
+      <c r="I212">
+        <v>-724134</v>
+      </c>
+      <c r="J212">
+        <v>204753</v>
+      </c>
+      <c r="K212">
+        <v>75077</v>
+      </c>
+      <c r="L212">
+        <v>119459</v>
+      </c>
+      <c r="M212">
+        <v>10217</v>
+      </c>
+      <c r="N212">
+        <v>48821</v>
+      </c>
+      <c r="O212">
+        <v>42047</v>
+      </c>
+      <c r="P212">
+        <v>12486</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/13/1/2/1/Ingresos Tributarios 2004 a 2021 - Mensual.xlsx
+++ b/13/1/2/1/Ingresos Tributarios 2004 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t>Serie</t>
   </si>
@@ -695,6 +695,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P212"/>
+  <dimension ref="A1:P213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11625,10 +11628,10 @@
         <v>966421</v>
       </c>
       <c r="F212">
-        <v>1906053</v>
+        <v>1907489</v>
       </c>
       <c r="G212">
-        <v>2660978</v>
+        <v>2662414</v>
       </c>
       <c r="H212">
         <v>-30791</v>
@@ -11655,7 +11658,57 @@
         <v>42047</v>
       </c>
       <c r="P212">
-        <v>12486</v>
+        <v>11050</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16">
+      <c r="A213" t="s">
+        <v>227</v>
+      </c>
+      <c r="B213">
+        <v>1375333</v>
+      </c>
+      <c r="C213">
+        <v>-68284</v>
+      </c>
+      <c r="D213">
+        <v>471800</v>
+      </c>
+      <c r="E213">
+        <v>971817</v>
+      </c>
+      <c r="F213">
+        <v>2038268</v>
+      </c>
+      <c r="G213">
+        <v>2825168</v>
+      </c>
+      <c r="H213">
+        <v>-26957</v>
+      </c>
+      <c r="I213">
+        <v>-759943</v>
+      </c>
+      <c r="J213">
+        <v>258337</v>
+      </c>
+      <c r="K213">
+        <v>91271</v>
+      </c>
+      <c r="L213">
+        <v>168393</v>
+      </c>
+      <c r="M213">
+        <v>-1327</v>
+      </c>
+      <c r="N213">
+        <v>58924</v>
+      </c>
+      <c r="O213">
+        <v>42396</v>
+      </c>
+      <c r="P213">
+        <v>-1367</v>
       </c>
     </row>
   </sheetData>

--- a/13/1/2/1/Ingresos Tributarios 2004 a 2021 - Mensual.xlsx
+++ b/13/1/2/1/Ingresos Tributarios 2004 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
   <si>
     <t>Serie</t>
   </si>
@@ -698,6 +698,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1058,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P213"/>
+  <dimension ref="A1:P214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11569,10 +11572,10 @@
         <v>708371</v>
       </c>
       <c r="C211">
-        <v>-753534</v>
+        <v>-764482</v>
       </c>
       <c r="D211">
-        <v>503731</v>
+        <v>514679</v>
       </c>
       <c r="E211">
         <v>958174</v>
@@ -11619,10 +11622,10 @@
         <v>1040494</v>
       </c>
       <c r="C212">
-        <v>-518053</v>
+        <v>-519368</v>
       </c>
       <c r="D212">
-        <v>592125</v>
+        <v>593440</v>
       </c>
       <c r="E212">
         <v>966421</v>
@@ -11709,6 +11712,56 @@
       </c>
       <c r="P213">
         <v>-1367</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16">
+      <c r="A214" t="s">
+        <v>228</v>
+      </c>
+      <c r="B214">
+        <v>2009535</v>
+      </c>
+      <c r="C214">
+        <v>-47889</v>
+      </c>
+      <c r="D214">
+        <v>1019855</v>
+      </c>
+      <c r="E214">
+        <v>1037569</v>
+      </c>
+      <c r="F214">
+        <v>1978132</v>
+      </c>
+      <c r="G214">
+        <v>2712470</v>
+      </c>
+      <c r="H214">
+        <v>-31957</v>
+      </c>
+      <c r="I214">
+        <v>-702381</v>
+      </c>
+      <c r="J214">
+        <v>235125</v>
+      </c>
+      <c r="K214">
+        <v>104359</v>
+      </c>
+      <c r="L214">
+        <v>130686</v>
+      </c>
+      <c r="M214">
+        <v>80</v>
+      </c>
+      <c r="N214">
+        <v>60982</v>
+      </c>
+      <c r="O214">
+        <v>39346</v>
+      </c>
+      <c r="P214">
+        <v>-106621</v>
       </c>
     </row>
   </sheetData>
